--- a/rhla_analysis/rhla1_3_uniform_result/k10.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001318033261354804</v>
+        <v>0.001318033261354811</v>
       </c>
       <c r="B2" t="n">
         <v>0.2919577030329141</v>
@@ -466,12 +466,12 @@
         <v>0.1935208866155158</v>
       </c>
       <c r="D2" t="n">
-        <v>221.5101178348195</v>
+        <v>221.5101178348184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001580091727397972</v>
+        <v>0.001580091727397955</v>
       </c>
       <c r="B3" t="n">
         <v>0.2869335631408568</v>
@@ -480,12 +480,12 @@
         <v>0.2028985507246377</v>
       </c>
       <c r="D3" t="n">
-        <v>181.5929785376238</v>
+        <v>181.5929785376257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001860320093882819</v>
+        <v>0.001860320093882825</v>
       </c>
       <c r="B4" t="n">
         <v>0.2863791527793997</v>
@@ -494,12 +494,12 @@
         <v>0.1990622335890878</v>
       </c>
       <c r="D4" t="n">
-        <v>153.9407942327148</v>
+        <v>153.9407942327143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00170294646339406</v>
+        <v>0.001702946463394065</v>
       </c>
       <c r="B5" t="n">
         <v>0.2854081958273136</v>
@@ -508,12 +508,12 @@
         <v>0.1943734015345268</v>
       </c>
       <c r="D5" t="n">
-        <v>167.5966931212155</v>
+        <v>167.5966931212151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0044710615322673</v>
+        <v>0.004471061532267315</v>
       </c>
       <c r="B6" t="n">
         <v>0.2876976464971128</v>
@@ -522,12 +522,12 @@
         <v>0.2050298380221654</v>
       </c>
       <c r="D6" t="n">
-        <v>64.34660861203129</v>
+        <v>64.34660861203108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004893598802942122</v>
+        <v>0.004893598802942093</v>
       </c>
       <c r="B7" t="n">
         <v>0.2851909906592658</v>
@@ -536,12 +536,12 @@
         <v>0.2037510656436488</v>
       </c>
       <c r="D7" t="n">
-        <v>58.27837592403443</v>
+        <v>58.27837592403477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002647521806782683</v>
+        <v>0.002647521806782684</v>
       </c>
       <c r="B8" t="n">
         <v>0.2934924619915703</v>
@@ -555,21 +555,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002027665373430455</v>
+        <v>0.00202766537343045</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2909423869066529</v>
+        <v>0.2909423869066528</v>
       </c>
       <c r="C9" t="n">
         <v>0.1977834612105712</v>
       </c>
       <c r="D9" t="n">
-        <v>143.4863911565592</v>
+        <v>143.4863911565595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001972531085565598</v>
+        <v>0.001972531085565597</v>
       </c>
       <c r="B10" t="n">
         <v>0.2898116836699833</v>
@@ -578,12 +578,12 @@
         <v>0.1935208866155158</v>
       </c>
       <c r="D10" t="n">
-        <v>146.9237599299397</v>
+        <v>146.9237599299398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003873333874010378</v>
+        <v>0.003873333874010336</v>
       </c>
       <c r="B11" t="n">
         <v>0.2890593813242495</v>
@@ -592,7 +592,7 @@
         <v>0.2041773231031543</v>
       </c>
       <c r="D11" t="n">
-        <v>74.62805705023378</v>
+        <v>74.62805705023457</v>
       </c>
     </row>
   </sheetData>
